--- a/Tesztmenedzser.xlsx
+++ b/Tesztmenedzser.xlsx
@@ -321,7 +321,7 @@
     </r>
   </si>
   <si>
-    <t>- Saturday</t>
+    <t>Day selected :- Saturday</t>
   </si>
   <si>
     <t>Felugró ablak</t>
